--- a/src/main/doc/import批量提交试题文件格式.xlsx
+++ b/src/main/doc/import批量提交试题文件格式.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kaoba\kaoba-web\src\main\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="4125"/>
   </bookViews>
@@ -12,15 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>李四</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>选项A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,13 +47,69 @@
   </si>
   <si>
     <t>详解</t>
+  </si>
+  <si>
+    <t>试题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试题3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试题4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你傻吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不傻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +120,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,8 +154,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -99,74 +167,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,7 +186,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -465,133 +465,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
